--- a/Assets/06.Table/TestSumi.xlsx
+++ b/Assets/06.Table/TestSumi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F77E5A-6DAB-4A81-BBC2-34501E45912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665628B-E627-4587-9E0B-013589C7BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSumi" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1387,7 +1387,8 @@
         <v>43</v>
       </c>
       <c r="E22" s="24">
-        <v>1.7</v>
+        <f>VLOOKUP(B22,Balnace!F:K,6,FALSE)</f>
+        <v>1.51</v>
       </c>
     </row>
     <row r="23" spans="1:5">
